--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1140071.283773522</v>
+        <v>1137370.634150214</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>136.6253230858997</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>25.67913628361561</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -716,7 +716,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>169.9402930106563</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>18.56117045231594</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>61.90919546454395</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>11.49411350492797</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>10.47906135459657</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>383.0198440937151</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42130226825858</v>
+        <v>12.42130226825859</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9653033936936</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>64.45828691910796</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.0198440937151</v>
+        <v>383.0198440937129</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.34583147339772</v>
       </c>
       <c r="I6" t="n">
-        <v>27.63492518706435</v>
+        <v>36.31604239259352</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0466996907028</v>
+        <v>143.0466996907029</v>
       </c>
       <c r="T6" t="n">
-        <v>193.950580588878</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8399542011172</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>39.72016663385091</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>159.5819666321966</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5810943629796</v>
       </c>
       <c r="J7" t="n">
-        <v>1.978535422478018</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1773223714493</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>137.9375845890675</v>
+        <v>222.4230353577824</v>
       </c>
       <c r="U7" t="n">
         <v>286.2485286662292</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>37.80655536594413</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>25.58299561021714</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110028</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.9387099570811</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>270.1915102239735</v>
       </c>
       <c r="I11" t="n">
-        <v>7.201714027893303</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114092</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>9.753166794035153</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>63.99903422998817</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>79.00824149146331</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1585,7 +1585,7 @@
         <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>196.2511428064798</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754636</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
-        <v>148.905530700185</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901119207</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1819,16 +1819,16 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>247.5542959338579</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.97427419834217</v>
       </c>
       <c r="I19" t="n">
-        <v>35.41770597127051</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016407</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890342</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428303</v>
       </c>
       <c r="E22" t="n">
-        <v>36.43062059490379</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>21.9028628750541</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470134</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>131.2944603446577</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>181.7798872146009</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>9.146142788179031</v>
+        <v>18.7084378797724</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>115.7063133373721</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833807</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>141.5888089825035</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797025</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>432.4256445709462</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>432.4256445709462</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>166.0479880037681</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>166.0479880037681</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>159.1024872545647</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052543</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946894</v>
+        <v>1028.916998507423</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298174</v>
+        <v>814.482942342551</v>
       </c>
       <c r="U2" t="n">
-        <v>432.4256445709462</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="V2" t="n">
-        <v>432.4256445709462</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="W2" t="n">
-        <v>432.4256445709462</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="X2" t="n">
-        <v>432.4256445709462</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="Y2" t="n">
-        <v>432.4256445709462</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.46256898749988</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166548</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166548</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="U3" t="n">
-        <v>716.2264761897293</v>
+        <v>629.9105956742757</v>
       </c>
       <c r="V3" t="n">
-        <v>481.0743679579866</v>
+        <v>629.9105956742757</v>
       </c>
       <c r="W3" t="n">
-        <v>481.0743679579866</v>
+        <v>611.1619386517343</v>
       </c>
       <c r="X3" t="n">
-        <v>273.2228677524538</v>
+        <v>403.3104384462014</v>
       </c>
       <c r="Y3" t="n">
-        <v>65.46256898749988</v>
+        <v>195.5501396812475</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.8069210092336</v>
+        <v>252.5678342013041</v>
       </c>
       <c r="C4" t="n">
-        <v>493.8069210092336</v>
+        <v>83.63165127339721</v>
       </c>
       <c r="D4" t="n">
-        <v>493.8069210092336</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>493.8069210092336</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>482.1967053476902</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407079</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512193</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>493.8069210092336</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U4" t="n">
-        <v>493.8069210092336</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V4" t="n">
-        <v>493.8069210092336</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="W4" t="n">
-        <v>493.8069210092336</v>
+        <v>434.2162990315438</v>
       </c>
       <c r="X4" t="n">
-        <v>493.8069210092336</v>
+        <v>434.2162990315438</v>
       </c>
       <c r="Y4" t="n">
-        <v>493.8069210092336</v>
+        <v>434.2162990315438</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>440.6619993624166</v>
+        <v>749.0183768971187</v>
       </c>
       <c r="C5" t="n">
-        <v>440.6619993624166</v>
+        <v>749.0183768971187</v>
       </c>
       <c r="D5" t="n">
-        <v>430.0770889032282</v>
+        <v>749.0183768971187</v>
       </c>
       <c r="E5" t="n">
-        <v>430.0770889032282</v>
+        <v>363.2301242988744</v>
       </c>
       <c r="F5" t="n">
-        <v>43.18835749543516</v>
+        <v>356.284623549671</v>
       </c>
       <c r="G5" t="n">
-        <v>30.6415875274972</v>
+        <v>343.737853581733</v>
       </c>
       <c r="H5" t="n">
-        <v>30.6415875274972</v>
+        <v>30.64158752749704</v>
       </c>
       <c r="I5" t="n">
-        <v>30.6415875274972</v>
+        <v>30.64158752749704</v>
       </c>
       <c r="J5" t="n">
-        <v>93.5187746828135</v>
+        <v>93.51877468281282</v>
       </c>
       <c r="K5" t="n">
-        <v>238.4938972452971</v>
+        <v>238.4938972452956</v>
       </c>
       <c r="L5" t="n">
-        <v>455.2501182192539</v>
+        <v>455.2501182192512</v>
       </c>
       <c r="M5" t="n">
-        <v>728.102615949421</v>
+        <v>728.1026159494169</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.983960730199</v>
+        <v>1009.983960730194</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.821260145366</v>
+        <v>1262.821260145359</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.111044739595</v>
+        <v>1444.111044739587</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.07937637486</v>
+        <v>1532.079376374852</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.07937637486</v>
+        <v>1532.079376374852</v>
       </c>
       <c r="S5" t="n">
-        <v>1532.07937637486</v>
+        <v>1466.96999564848</v>
       </c>
       <c r="T5" t="n">
-        <v>1532.07937637486</v>
+        <v>1466.96999564848</v>
       </c>
       <c r="U5" t="n">
-        <v>1532.07937637486</v>
+        <v>1466.96999564848</v>
       </c>
       <c r="V5" t="n">
-        <v>1201.016489031289</v>
+        <v>1135.90710830491</v>
       </c>
       <c r="W5" t="n">
-        <v>1201.016489031289</v>
+        <v>1135.90710830491</v>
       </c>
       <c r="X5" t="n">
-        <v>827.5507307702096</v>
+        <v>1135.90710830491</v>
       </c>
       <c r="Y5" t="n">
-        <v>440.6619993624166</v>
+        <v>749.0183768971187</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.55565337301675</v>
+        <v>489.0410202739068</v>
       </c>
       <c r="C6" t="n">
-        <v>58.55565337301675</v>
+        <v>314.5879909927799</v>
       </c>
       <c r="D6" t="n">
-        <v>58.55565337301675</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="E6" t="n">
-        <v>58.55565337301675</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="F6" t="n">
-        <v>58.55565337301675</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="G6" t="n">
-        <v>58.55565337301675</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="H6" t="n">
-        <v>58.55565337301675</v>
+        <v>67.32445863112684</v>
       </c>
       <c r="I6" t="n">
-        <v>30.6415875274972</v>
+        <v>30.64158752749704</v>
       </c>
       <c r="J6" t="n">
-        <v>69.88900179495114</v>
+        <v>49.27296248835567</v>
       </c>
       <c r="K6" t="n">
-        <v>179.887813889726</v>
+        <v>202.9042018085623</v>
       </c>
       <c r="L6" t="n">
-        <v>374.1173326028517</v>
+        <v>582.0938474613381</v>
       </c>
       <c r="M6" t="n">
-        <v>620.1308878987882</v>
+        <v>828.1074027572737</v>
       </c>
       <c r="N6" t="n">
-        <v>887.0643348829749</v>
+        <v>1095.040849741459</v>
       </c>
       <c r="O6" t="n">
-        <v>1109.036493992975</v>
+        <v>1317.013008851459</v>
       </c>
       <c r="P6" t="n">
-        <v>1267.855654846701</v>
+        <v>1475.832169705184</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.07937637486</v>
+        <v>1532.079376374852</v>
       </c>
       <c r="R6" t="n">
-        <v>1532.07937637486</v>
+        <v>1532.079376374852</v>
       </c>
       <c r="S6" t="n">
-        <v>1387.587760525665</v>
+        <v>1387.587760525657</v>
       </c>
       <c r="T6" t="n">
-        <v>1191.678083163162</v>
+        <v>1387.587760525657</v>
       </c>
       <c r="U6" t="n">
-        <v>963.5569173034479</v>
+        <v>1159.466594665942</v>
       </c>
       <c r="V6" t="n">
-        <v>728.4048090717051</v>
+        <v>1119.345214227709</v>
       </c>
       <c r="W6" t="n">
-        <v>474.1674523435035</v>
+        <v>865.1078574995076</v>
       </c>
       <c r="X6" t="n">
-        <v>266.3159521379707</v>
+        <v>657.2563572939748</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.55565337301675</v>
+        <v>657.2563572939748</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.64010815626288</v>
+        <v>309.5941743913114</v>
       </c>
       <c r="C7" t="n">
-        <v>32.64010815626288</v>
+        <v>309.5941743913114</v>
       </c>
       <c r="D7" t="n">
-        <v>32.64010815626288</v>
+        <v>309.5941743913114</v>
       </c>
       <c r="E7" t="n">
-        <v>32.64010815626288</v>
+        <v>309.5941743913114</v>
       </c>
       <c r="F7" t="n">
-        <v>32.64010815626288</v>
+        <v>309.5941743913114</v>
       </c>
       <c r="G7" t="n">
-        <v>32.64010815626288</v>
+        <v>148.4002687022239</v>
       </c>
       <c r="H7" t="n">
-        <v>32.64010815626288</v>
+        <v>148.4002687022239</v>
       </c>
       <c r="I7" t="n">
-        <v>32.64010815626288</v>
+        <v>30.64158752749704</v>
       </c>
       <c r="J7" t="n">
-        <v>30.6415875274972</v>
+        <v>30.64158752749704</v>
       </c>
       <c r="K7" t="n">
-        <v>157.2595961747003</v>
+        <v>157.2595961746998</v>
       </c>
       <c r="L7" t="n">
-        <v>374.8134887914621</v>
+        <v>374.8134887914611</v>
       </c>
       <c r="M7" t="n">
-        <v>614.5826883437692</v>
+        <v>614.5826883437676</v>
       </c>
       <c r="N7" t="n">
-        <v>854.0853286630871</v>
+        <v>854.0853286630851</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.288486109133</v>
+        <v>1059.28848610913</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.35455501623</v>
+        <v>1211.354555016228</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.202138767124</v>
+        <v>1233.202138767121</v>
       </c>
       <c r="R7" t="n">
-        <v>1233.202138767124</v>
+        <v>1112.821005058587</v>
       </c>
       <c r="S7" t="n">
-        <v>1233.202138767124</v>
+        <v>1112.821005058587</v>
       </c>
       <c r="T7" t="n">
-        <v>1093.871245242814</v>
+        <v>888.151272373958</v>
       </c>
       <c r="U7" t="n">
-        <v>804.7313172971277</v>
+        <v>599.011344428272</v>
       </c>
       <c r="V7" t="n">
-        <v>550.0468290912409</v>
+        <v>599.011344428272</v>
       </c>
       <c r="W7" t="n">
-        <v>260.6296590542802</v>
+        <v>309.5941743913114</v>
       </c>
       <c r="X7" t="n">
-        <v>32.64010815626288</v>
+        <v>309.5941743913114</v>
       </c>
       <c r="Y7" t="n">
-        <v>32.64010815626288</v>
+        <v>309.5941743913114</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.246750862032</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="C8" t="n">
-        <v>880.2842339216199</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="D8" t="n">
-        <v>522.0185353148695</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2302827166252</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4805,10 +4805,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>2399.451681163045</v>
+        <v>2000.825031735865</v>
       </c>
       <c r="X8" t="n">
-        <v>2025.985922901965</v>
+        <v>1974.983622028575</v>
       </c>
       <c r="Y8" t="n">
-        <v>1635.846590926153</v>
+        <v>1974.983622028575</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4881,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2238.100841080694</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2561.393271046731</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598622</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319553</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>142.8610446196195</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
         <v>51.2467865680031</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1451.659544360274</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1228.681063555009</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>939.5627260588469</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>939.5627260588469</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>422.1560051238689</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901019</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2024.363343444093</v>
+        <v>1535.258832689356</v>
       </c>
       <c r="C11" t="n">
-        <v>1655.400826503681</v>
+        <v>1535.258832689356</v>
       </c>
       <c r="D11" t="n">
-        <v>1297.13512789693</v>
+        <v>1176.993134082606</v>
       </c>
       <c r="E11" t="n">
-        <v>911.346875298686</v>
+        <v>1176.993134082606</v>
       </c>
       <c r="F11" t="n">
-        <v>500.3609705090785</v>
+        <v>766.0072292929981</v>
       </c>
       <c r="G11" t="n">
-        <v>85.78552483872566</v>
+        <v>351.431783622645</v>
       </c>
       <c r="H11" t="n">
-        <v>85.78552483872566</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420323</v>
+        <v>704.5155104420328</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878112</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2485.180661765427</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687102</v>
+        <v>3070.226377687104</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856283</v>
+        <v>3535.048359856286</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882241</v>
+        <v>3835.937563882245</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234591</v>
+        <v>3925.553311234596</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234591</v>
+        <v>3826.588132455666</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750371</v>
+        <v>3622.786021971446</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.260484382979</v>
+        <v>3369.295305604054</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.197597039408</v>
+        <v>3038.232418260483</v>
       </c>
       <c r="W11" t="n">
-        <v>2784.428941769294</v>
+        <v>2685.463762990369</v>
       </c>
       <c r="X11" t="n">
-        <v>2410.963183508215</v>
+        <v>2311.998004729289</v>
       </c>
       <c r="Y11" t="n">
-        <v>2410.963183508215</v>
+        <v>1921.858672753478</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503044</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792128</v>
+        <v>196.8120623792132</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376502</v>
+        <v>477.162132237651</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843894</v>
+        <v>900.4499396649612</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282788</v>
+        <v>977.3905023848048</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1518.698809735872</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>458.5495464517424</v>
+        <v>226.4241598070851</v>
       </c>
       <c r="C13" t="n">
-        <v>458.5495464517423</v>
+        <v>226.4241598070851</v>
       </c>
       <c r="D13" t="n">
-        <v>458.5495464517423</v>
+        <v>226.4241598070851</v>
       </c>
       <c r="E13" t="n">
-        <v>310.6364528693493</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="F13" t="n">
-        <v>245.9909637481491</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J13" t="n">
-        <v>139.08183346004</v>
+        <v>139.0818334600402</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457704</v>
+        <v>368.4550473457708</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.5002252888924</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.908548779222</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542995</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.96773471585</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082523</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551107</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014273</v>
+        <v>2076.102739014275</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370155</v>
+        <v>1888.302075370158</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920201</v>
+        <v>1667.488017920203</v>
       </c>
       <c r="U13" t="n">
-        <v>1378.39731136049</v>
+        <v>1378.397311360492</v>
       </c>
       <c r="V13" t="n">
-        <v>1378.39731136049</v>
+        <v>1123.712823154606</v>
       </c>
       <c r="W13" t="n">
-        <v>1088.98014132353</v>
+        <v>834.2956531176449</v>
       </c>
       <c r="X13" t="n">
-        <v>860.9905904255122</v>
+        <v>606.3061022196275</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.1980112819821</v>
+        <v>408.0726246373248</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.46243061463</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.19673200788</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409635</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200279</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128776</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469742</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126171</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524489</v>
       </c>
       <c r="K15" t="n">
-        <v>240.4596049779265</v>
+        <v>572.0073801158076</v>
       </c>
       <c r="L15" t="n">
-        <v>240.4596049779265</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1320.428158124813</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1015.754398433618</v>
+        <v>494.0589900220726</v>
       </c>
       <c r="C16" t="n">
-        <v>846.8182155057107</v>
+        <v>325.1228070941658</v>
       </c>
       <c r="D16" t="n">
-        <v>696.701576093375</v>
+        <v>175.00616768183</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109817</v>
+        <v>175.00616768183</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130713</v>
+        <v>175.00616768183</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693324</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
         <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821982</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1957.667456821982</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1707.612612444348</v>
+        <v>1413.90675493082</v>
       </c>
       <c r="W16" t="n">
-        <v>1418.195442407387</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1418.195442407387</v>
+        <v>896.5000339958425</v>
       </c>
       <c r="Y16" t="n">
-        <v>1197.402863263857</v>
+        <v>675.7074548523124</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,16 +5513,16 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111723</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5549,7 +5549,7 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5519571452603</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452603</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718124</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.528408326419</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327681</v>
+        <v>513.8536007400753</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048612</v>
+        <v>344.9174178121684</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925254</v>
+        <v>194.8007783998327</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101323</v>
+        <v>194.8007783998327</v>
       </c>
       <c r="F19" t="n">
-        <v>296.7882229101323</v>
+        <v>194.8007783998327</v>
       </c>
       <c r="G19" t="n">
-        <v>129.5921236250122</v>
+        <v>194.8007783998327</v>
       </c>
       <c r="H19" t="n">
-        <v>129.5921236250122</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704553</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806538</v>
+        <v>916.2946447138452</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630079</v>
+        <v>695.502065570315</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327638</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048571</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925213</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
@@ -5914,46 +5914,46 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797756</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806533</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630033</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400708</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121647</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>322.7933138979686</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138406</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703105</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192514</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111707</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,13 +6251,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851784</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2131.487582220358</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,7 +6643,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y31" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876686</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597617</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597617</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597617</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614385</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179083</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>991.7436897307815</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>822.8075068028747</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>672.690867390539</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E37" t="n">
-        <v>524.7777738081459</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F37" t="n">
-        <v>377.8878263102355</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>210.6917270251154</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7099,7 +7099,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>1173.392154561021</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876694</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597624</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7342,40 +7342,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614392</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179091</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C43" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,16 +7804,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570817</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127264</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.58458098752797</v>
+        <v>34.58458098752845</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>20.82428212787367</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>44.073158813568</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>186.8284110501526</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>21.89339468985682</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>19.37720645670368</v>
       </c>
       <c r="I11" t="n">
-        <v>15.40605800448697</v>
+        <v>22.6077720323801</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>81.42201379294308</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034039</v>
+        <v>89.71507747034032</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>22.33351054561498</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.291526137294</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613728917</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.16945386597486</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>4.5833473899701</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788169</v>
       </c>
       <c r="I19" t="n">
-        <v>45.848130347295</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409392933</v>
       </c>
       <c r="E22" t="n">
-        <v>110.0033420516654</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>126.7126101431583</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>154.8900140445865</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>43.92976817443625</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>136.2749052347522</v>
+        <v>126.7126101431588</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>43.26526345294997</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>24.58839950885178</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>137.2878198583892</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823111</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>144.5956654067407</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>45.44677382459334</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>979173.720171966</v>
+        <v>979173.7201719661</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>873360.2125636343</v>
+        <v>873360.212563635</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>950468.0592548345</v>
+        <v>950468.0592548341</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>955716.5822159053</v>
+        <v>955716.5822159052</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.582215905</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="15">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719634</v>
+        <v>472099.0176719635</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876633</v>
+        <v>423807.2415876638</v>
       </c>
       <c r="F2" t="n">
         <v>461540.8686918677</v>
       </c>
       <c r="G2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="H2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217536</v>
@@ -26338,22 +26338,22 @@
         <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217534</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217539</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217534</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.9098103535</v>
+        <v>132064.9098103513</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.918219636</v>
+        <v>266112.9182196383</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357065</v>
+        <v>325187.1190357078</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051382</v>
+        <v>166521.3471051363</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557916</v>
+        <v>11167.23623557958</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911404</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.53736648366</v>
+        <v>30705.53736648308</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.38037950847</v>
+        <v>65187.38037950901</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456821</v>
+        <v>84929.59434456853</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848923</v>
+        <v>43782.4065584887</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224638</v>
+        <v>3023.297977224857</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246753.8673982313</v>
+        <v>246753.8673982314</v>
       </c>
       <c r="C4" t="n">
-        <v>210781.1722492929</v>
+        <v>210781.1722492936</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618638</v>
@@ -26427,34 +26427,34 @@
         <v>8018.191469425932</v>
       </c>
       <c r="F4" t="n">
-        <v>8110.779805506623</v>
+        <v>8110.779805506581</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="H4" t="n">
+        <v>8117.312426731984</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731987</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8117.312426731983</v>
+      </c>
+      <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="I4" t="n">
-        <v>8117.312426731984</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8117.312426732017</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8117.312426731984</v>
-      </c>
       <c r="L4" t="n">
+        <v>8117.312426731979</v>
+      </c>
+      <c r="M4" t="n">
         <v>8117.312426731987</v>
       </c>
-      <c r="M4" t="n">
-        <v>8117.312426731984</v>
-      </c>
       <c r="N4" t="n">
-        <v>8117.312426731997</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731988</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731994</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.50950589725</v>
+        <v>72540.50950589709</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.7221621471</v>
+        <v>86093.7221621472</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-517790.6335217273</v>
+        <v>-517790.6335217272</v>
       </c>
       <c r="C6" t="n">
-        <v>56712.42610641925</v>
+        <v>56712.42610642099</v>
       </c>
       <c r="D6" t="n">
-        <v>-21269.67324938139</v>
+        <v>-21269.6732493836</v>
       </c>
       <c r="E6" t="n">
-        <v>4508.208920383768</v>
+        <v>4298.244676538072</v>
       </c>
       <c r="F6" t="n">
-        <v>186766.6132673845</v>
+        <v>186720.7082718208</v>
       </c>
       <c r="G6" t="n">
-        <v>343702.2163355355</v>
+        <v>343667.4784100992</v>
       </c>
       <c r="H6" t="n">
-        <v>354869.4525711149</v>
+        <v>354834.7146456791</v>
       </c>
       <c r="I6" t="n">
-        <v>354869.4525711145</v>
+        <v>354834.7146456788</v>
       </c>
       <c r="J6" t="n">
-        <v>285870.2981520004</v>
+        <v>285835.5602265648</v>
       </c>
       <c r="K6" t="n">
-        <v>324163.915204631</v>
+        <v>324129.1772791957</v>
       </c>
       <c r="L6" t="n">
-        <v>289682.0721916058</v>
+        <v>289647.3342661698</v>
       </c>
       <c r="M6" t="n">
-        <v>269939.8582265466</v>
+        <v>269905.1203011103</v>
       </c>
       <c r="N6" t="n">
-        <v>311087.0460126252</v>
+        <v>311052.30808719</v>
       </c>
       <c r="O6" t="n">
-        <v>351846.1545938898</v>
+        <v>351811.416668454</v>
       </c>
       <c r="P6" t="n">
-        <v>354869.4525711144</v>
+        <v>354834.7146456786</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>716.7570176605221</v>
+        <v>716.7570176605203</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937151</v>
+        <v>383.0198440937129</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086478</v>
+        <v>981.388327808649</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>102.7020038910438</v>
+        <v>102.7020038910421</v>
       </c>
       <c r="D3" t="n">
-        <v>217.307874457017</v>
+        <v>217.3078744570188</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770168</v>
+        <v>278.1053753770179</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218299</v>
+        <v>145.8707812218283</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625288602</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.3059640922088</v>
+        <v>119.3059640922068</v>
       </c>
       <c r="D4" t="n">
-        <v>257.5649880063237</v>
+        <v>257.5649880063258</v>
       </c>
       <c r="E4" t="n">
-        <v>340.803495708609</v>
+        <v>340.8034957086103</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173592</v>
+        <v>178.756962517357</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364256</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922091</v>
+        <v>119.3059640922068</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063237</v>
+        <v>257.5649880063258</v>
       </c>
       <c r="M4" t="n">
-        <v>340.803495708609</v>
+        <v>340.8034957086103</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173592</v>
+        <v>178.756962517357</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364256</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922088</v>
+        <v>119.3059640922068</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063237</v>
+        <v>257.5649880063258</v>
       </c>
       <c r="M4" t="n">
-        <v>340.803495708609</v>
+        <v>340.8034957086103</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173592</v>
+        <v>178.756962517357</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364256</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.9691616191767</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>276.2088515598103</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>127.0885569156067</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>55.91419449289833</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>233.1338127086037</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>86.7062775536684</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>133.9269345180033</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>344.2039802660864</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.85620164799639</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9653033936935</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.38935721520075</v>
+        <v>99.38935721520103</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980477</v>
+        <v>78.90107697893995</v>
       </c>
       <c r="T5" t="n">
         <v>210.4823667709296</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.218094562338536</v>
+        <v>3.218094562340639</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,10 +27710,10 @@
         <v>135.8018133893748</v>
       </c>
       <c r="H6" t="n">
-        <v>97.34583147339769</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>8.681117205529031</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.436963001677512</v>
+        <v>4.436963001677753</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.950580588878</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>193.0804205155744</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6984667036611</v>
+        <v>7.116500071464515</v>
       </c>
       <c r="H7" t="n">
         <v>150.735559994784</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5810943629795</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.978535422478259</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1773223714491</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>201.4916274983621</v>
       </c>
       <c r="T7" t="n">
-        <v>84.48545076871494</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>311.4344133514689</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>344.1481050682519</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546889</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28059,16 +28059,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>11.72375040465641</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.939278935045264e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>3.880510727564494e-12</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>2.926299202954396e-12</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>9.285372470912988e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.881435246876469</v>
+        <v>2.881435246876461</v>
       </c>
       <c r="H5" t="n">
-        <v>29.50949872207364</v>
+        <v>29.50949872207357</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0865323552052</v>
+        <v>111.0865323552049</v>
       </c>
       <c r="J5" t="n">
-        <v>244.5582147845819</v>
+        <v>244.5582147845813</v>
       </c>
       <c r="K5" t="n">
-        <v>366.5293687848629</v>
+        <v>366.529368784862</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7120927214587</v>
+        <v>454.7120927214576</v>
       </c>
       <c r="M5" t="n">
-        <v>505.9548167930981</v>
+        <v>505.9548167930968</v>
       </c>
       <c r="N5" t="n">
-        <v>514.141694688286</v>
+        <v>514.1416946882846</v>
       </c>
       <c r="O5" t="n">
-        <v>485.489422952158</v>
+        <v>485.4894229521568</v>
       </c>
       <c r="P5" t="n">
-        <v>414.3539902948951</v>
+        <v>414.3539902948941</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.1625905161315</v>
+        <v>311.1625905161307</v>
       </c>
       <c r="R5" t="n">
-        <v>181.0009568266042</v>
+        <v>181.0009568266037</v>
       </c>
       <c r="S5" t="n">
-        <v>65.6607056881976</v>
+        <v>65.66070568819742</v>
       </c>
       <c r="T5" t="n">
-        <v>12.61348279320175</v>
+        <v>12.61348279320172</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2305148197501175</v>
+        <v>0.2305148197501169</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.54170377383584</v>
+        <v>1.541703773835836</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88961276309877</v>
+        <v>14.88961276309874</v>
       </c>
       <c r="I6" t="n">
-        <v>53.0805904588217</v>
+        <v>53.08059045882156</v>
       </c>
       <c r="J6" t="n">
-        <v>145.657197334201</v>
+        <v>145.6571973342007</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812023</v>
+        <v>248.9513501812017</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234354</v>
+        <v>334.7458128234346</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6325746249845</v>
+        <v>390.6325746249835</v>
       </c>
       <c r="N6" t="n">
-        <v>400.9714565118048</v>
+        <v>400.9714565118038</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757579</v>
+        <v>366.810546575757</v>
       </c>
       <c r="P6" t="n">
-        <v>294.3978022160737</v>
+        <v>294.397802216073</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7971343584136</v>
+        <v>196.7971343584131</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096562</v>
+        <v>95.72087115096538</v>
       </c>
       <c r="S6" t="n">
-        <v>28.63647141313499</v>
+        <v>28.63647141313492</v>
       </c>
       <c r="T6" t="n">
-        <v>6.214148105943582</v>
+        <v>6.214148105943566</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014278798576211</v>
+        <v>0.1014278798576208</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.292512654797663</v>
+        <v>1.29251265479766</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49161251265559</v>
+        <v>11.49161251265556</v>
       </c>
       <c r="I7" t="n">
-        <v>38.86938056427881</v>
+        <v>38.86938056427871</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38064469419476</v>
+        <v>91.38064469419452</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1664702574012</v>
+        <v>150.1664702574008</v>
       </c>
       <c r="L7" t="n">
-        <v>192.1613814232816</v>
+        <v>192.1613814232811</v>
       </c>
       <c r="M7" t="n">
-        <v>202.6072336970554</v>
+        <v>202.6072336970549</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7896865291734</v>
+        <v>197.7896865291729</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6907886981279</v>
+        <v>182.6907886981274</v>
       </c>
       <c r="P7" t="n">
-        <v>156.3235305402554</v>
+        <v>156.323530540255</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2303096667388</v>
+        <v>108.2303096667386</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572035</v>
+        <v>58.1160690057202</v>
       </c>
       <c r="S7" t="n">
-        <v>22.52497053861017</v>
+        <v>22.52497053861011</v>
       </c>
       <c r="T7" t="n">
-        <v>5.522554070499103</v>
+        <v>5.522554070499089</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07050069026169077</v>
+        <v>0.07050069026169059</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485653</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508996</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380258</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>413.5937135307183</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>619.8697634726061</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>769.0032542216978</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>855.6642913857432</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>869.5098341898395</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>821.0534800294414</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>700.7501494615143</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>526.2341787895591</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>306.1064947356984</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475346</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188522</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969425</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191524</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>89.76921320596485</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.3335823783043</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>421.0233277202557</v>
       </c>
       <c r="L12" t="n">
-        <v>141.5392044735502</v>
+        <v>566.117821625642</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845328</v>
+        <v>219.8517740430724</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147139</v>
+        <v>678.1177801147145</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>620.3452877431814</v>
       </c>
       <c r="P12" t="n">
-        <v>497.881784020547</v>
+        <v>497.8817840205475</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071845</v>
+        <v>332.8207874071848</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533298</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697591</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190412</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236086</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737176</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>65.73539745691797</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.5417732836913</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.9596068619743</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>324.9808615509178</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263712</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973097</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>308.9643167050062</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761898</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916781</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>98.28514988570618</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.09394102929615</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.339672552826912</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>640.3146339032908</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>391.6330708361152</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,31 +32315,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>399.1902208908119</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,19 +32786,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>391.605194951448</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>137.7376326175082</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,7 +33266,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,19 +33740,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572289</v>
+        <v>245.5483596572286</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.51231025789562</v>
+        <v>63.512310257895</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398824</v>
+        <v>146.4395177398814</v>
       </c>
       <c r="L5" t="n">
-        <v>218.9456777514715</v>
+        <v>218.9456777514703</v>
       </c>
       <c r="M5" t="n">
-        <v>275.6085835658254</v>
+        <v>275.6085835658241</v>
       </c>
       <c r="N5" t="n">
-        <v>284.728631091695</v>
+        <v>284.7286310916937</v>
       </c>
       <c r="O5" t="n">
-        <v>255.3912115304713</v>
+        <v>255.39121153047</v>
       </c>
       <c r="P5" t="n">
-        <v>183.1209945396256</v>
+        <v>183.1209945396245</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.85690064168202</v>
+        <v>88.85690064168122</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>39.64385279540802</v>
+        <v>18.81957066753398</v>
       </c>
       <c r="K6" t="n">
-        <v>111.1099112068433</v>
+        <v>155.1830700204107</v>
       </c>
       <c r="L6" t="n">
-        <v>196.1914330435612</v>
+        <v>383.0198440937129</v>
       </c>
       <c r="M6" t="n">
-        <v>248.4985407029662</v>
+        <v>248.4985407029652</v>
       </c>
       <c r="N6" t="n">
-        <v>269.6297444284714</v>
+        <v>269.6297444284704</v>
       </c>
       <c r="O6" t="n">
-        <v>224.2143021313135</v>
+        <v>224.2143021313126</v>
       </c>
       <c r="P6" t="n">
-        <v>160.4233948017435</v>
+        <v>160.4233948017427</v>
       </c>
       <c r="Q6" t="n">
-        <v>266.8926480082412</v>
+        <v>56.81536027239156</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8969784315183</v>
+        <v>127.8969784315179</v>
       </c>
       <c r="L7" t="n">
-        <v>219.7514066835978</v>
+        <v>219.7514066835973</v>
       </c>
       <c r="M7" t="n">
-        <v>242.191110658896</v>
+        <v>242.1911106588955</v>
       </c>
       <c r="N7" t="n">
-        <v>241.921858908402</v>
+        <v>241.9218589084015</v>
       </c>
       <c r="O7" t="n">
-        <v>207.2759166121675</v>
+        <v>207.2759166121671</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6020898051489</v>
+        <v>153.6020898051485</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504445</v>
+        <v>22.06826641504418</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.9556134883069083</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>232.547809004032</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>399.7799124276256</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>533.2368392517105</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>625.3180581584705</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932485</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>590.9552686077546</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>469.5171537062448</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>303.9284889151096</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>90.52095692156627</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116376</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>283.1818887458967</v>
       </c>
       <c r="L12" t="n">
-        <v>2.984824693675998</v>
+        <v>427.5634418457678</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>77.71774012105411</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313806</v>
+        <v>546.7760680313812</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>477.749043298737</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>363.9073766062172</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.839013321163</v>
+        <v>192.8390133211633</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936581</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>61.18259316701852</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360915</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.570886811234</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882118</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765383</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190459</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410833</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>96.87566713998372</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>498.1805999812725</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>260.2913587527819</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>261.3487819164529</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191332</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>253.0508151715738</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,19 +37388,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
